--- a/biology/Médecine/Triangle_fémoral/Triangle_fémoral.xlsx
+++ b/biology/Médecine/Triangle_fémoral/Triangle_fémoral.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Triangle_f%C3%A9moral</t>
+          <t>Triangle_fémoral</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le triangle fémoral (ou  triangle de Scarpa ou fosse crurale ou trigone fémoral) est une région du membre inférieur ayant la forme d'un triangle à base supérieure localisée en haut de la cuisse, sur sa partie antérieure et médiale. 
 Il doit son nom à Antonio Scarpa.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Triangle_f%C3%A9moral</t>
+          <t>Triangle_fémoral</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Limites</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Le triangle fémoral est limité par :
 en haut, le ligament inguinal tendu entre l'épine iliaque antérieure et supérieure et le tubercule pubien de l'os coxal forme la base du triangle,
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Triangle_f%C3%A9moral</t>
+          <t>Triangle_fémoral</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,7 +563,9 @@
           <t>Contenu</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>On lui distingue un plan superficiel et un plan profond. Les deux plans sont séparés par le fascia cribriformis.
 Le plan superficiel contient :
@@ -570,7 +586,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Triangle_f%C3%A9moral</t>
+          <t>Triangle_fémoral</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -590,12 +606,52 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Utilisation clinique
-La prise du pouls fémoral s'effectue au niveau du triangle fémoral. 
+          <t>Utilisation clinique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La prise du pouls fémoral s'effectue au niveau du triangle fémoral. 
 C'est également une voie d'accès à la veine fémorale pour y placer un cathéter de voie centrale ou à l'artère fémorale pour des artériographies et des coronographies.
 C'est une zone permettant de détecter les adénopathies.
-Traumatologie
-C'est une zone de traumatisme pouvant toucher l'artère fémorale.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Triangle_fémoral</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Triangle_f%C3%A9moral</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Aspect clinique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Traumatologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une zone de traumatisme pouvant toucher l'artère fémorale.
 </t>
         </is>
       </c>
